--- a/public/Danh sach.xlsx
+++ b/public/Danh sach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvthin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvthin\Desktop\project\app điểm danh sự kiện\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337D216-651D-42F7-ABA1-13AC71DA3234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED59313-7E33-4644-BD91-60A42D41E975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40C3B16C-8F90-475C-B492-872F332B07DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -56,29 +56,317 @@
     <t>00347894061169</t>
   </si>
   <si>
-    <t>Phan Văn Thìn</t>
-  </si>
-  <si>
     <t>Phòng CTSV-CĐS</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>00343874827342</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn C</t>
+    <t>00313542853688</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>Tăng Hữu Thủy</t>
+  </si>
+  <si>
+    <t>Phùng Thị Hương Lan</t>
+  </si>
+  <si>
+    <t>Ngô Văn Hải</t>
+  </si>
+  <si>
+    <t>Dương Văn Tuấn</t>
+  </si>
+  <si>
+    <t>Phùng Anh Kiệt</t>
+  </si>
+  <si>
+    <t>Trần Việt Thắng</t>
+  </si>
+  <si>
+    <t>Võ Thị Huyền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Mỹ Thạnh</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Nhung</t>
+  </si>
+  <si>
+    <t>Phan Thị Hồng Tươi</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Chinh</t>
+  </si>
+  <si>
+    <t>Lại Thế Tuân</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Trung</t>
+  </si>
+  <si>
+    <t>Trương Thị Lời</t>
+  </si>
+  <si>
+    <t>Đặng Bá Bính</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Bảo Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Loan</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Lợi</t>
+  </si>
+  <si>
+    <t>Đặng Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Lê Thị Thanh Thúy</t>
+  </si>
+  <si>
+    <t>Đinh Công Minh</t>
+  </si>
+  <si>
+    <t>Hỏa Văn Minh</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Tú</t>
+  </si>
+  <si>
+    <t>Trần Đình Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Tường</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trọng</t>
+  </si>
+  <si>
+    <t>Trần Thị Xuân</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Huyền Thu</t>
+  </si>
+  <si>
+    <t>Lê Thị Thanh An</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Luật</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Cường</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Trinh</t>
+  </si>
+  <si>
+    <t>Đinh Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>Lê Văn Phúc</t>
+  </si>
+  <si>
+    <t>Trần Văn Nhực</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Trang</t>
+  </si>
+  <si>
+    <t>Trần Văn Chuyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>Lê Minh Thảo</t>
+  </si>
+  <si>
+    <t>Trần Thị Yến</t>
+  </si>
+  <si>
+    <t>Ban Giám đốc</t>
+  </si>
+  <si>
+    <t>Phòng Tổng hợp</t>
+  </si>
+  <si>
+    <t>Phòng Kế hoạch - Tài chính</t>
+  </si>
+  <si>
+    <t>Phòng Dịch vụ - Dự án</t>
+  </si>
+  <si>
+    <t>Phòng Quản trị - Thiết bị</t>
+  </si>
+  <si>
+    <t>Phòng Hạ tầng</t>
+  </si>
+  <si>
+    <t>Phòng An ninh trật tự</t>
+  </si>
+  <si>
+    <t>Phòng Chăm sóc sức khỏe</t>
+  </si>
+  <si>
+    <t>Ban Quản lý cụm nhà A.G</t>
+  </si>
+  <si>
+    <t>Ban Quản lý cụm nhà A.H</t>
+  </si>
+  <si>
+    <t>Ban Quản lý cụm nhà B.A</t>
+  </si>
+  <si>
+    <t>Ban Quản lý cụm nhà B.B</t>
+  </si>
+  <si>
+    <t>Ban Quản lý cụm nhà B.C</t>
+  </si>
+  <si>
+    <t>Ban Quản lý cụm nhà B.D</t>
+  </si>
+  <si>
+    <t>Ban Quản lý cụm nhà B.E</t>
+  </si>
+  <si>
+    <t>BGD11</t>
+  </si>
+  <si>
+    <t>BGD12</t>
+  </si>
+  <si>
+    <t>BGD13</t>
+  </si>
+  <si>
+    <t>BGD21</t>
+  </si>
+  <si>
+    <t>BGD22</t>
+  </si>
+  <si>
+    <t>BGD23</t>
+  </si>
+  <si>
+    <t>TDV11</t>
+  </si>
+  <si>
+    <t>TDV12</t>
+  </si>
+  <si>
+    <t>TDV18</t>
+  </si>
+  <si>
+    <t>TDV25</t>
+  </si>
+  <si>
+    <t>TDV26</t>
+  </si>
+  <si>
+    <t>TDV13</t>
+  </si>
+  <si>
+    <t>TDV27</t>
+  </si>
+  <si>
+    <t>TDV28</t>
+  </si>
+  <si>
+    <t>TDV14</t>
+  </si>
+  <si>
+    <t>TDV35</t>
+  </si>
+  <si>
+    <t>TDV36</t>
+  </si>
+  <si>
+    <t>TDV37</t>
+  </si>
+  <si>
+    <t>TDV21</t>
+  </si>
+  <si>
+    <t>TDV38</t>
+  </si>
+  <si>
+    <t>TDV22</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>TDV23</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>TDV24</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>TDV31</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>TDV32</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>TDV33</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>TDV34</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>TDV15</t>
+  </si>
+  <si>
+    <t>TDV16</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>TDV17</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>00313542853689</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +374,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,13 +409,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,102 +794,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40D574F-6D65-4D7B-8EB8-CEE91D030EAD}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>"00"&amp;347894061169+A5</f>
+        <v>00347894061173</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>"00"&amp;347894061169+A6</f>
+        <v>00347894061174</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f t="shared" ref="C6:C43" si="0">"00"&amp;347894061169+A7</f>
+        <v>00347894061175</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061176</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061177</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061178</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061179</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061180</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061181</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061182</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061183</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061184</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061185</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061186</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061187</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061188</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061189</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061190</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061191</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061192</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061193</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061194</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061195</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061196</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061197</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061198</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061199</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061200</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061201</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061202</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061203</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061204</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061205</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061206</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061207</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>124</v>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061208</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061209</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061210</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00347894061211</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/public/Danh sach.xlsx
+++ b/public/Danh sach.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvthin\Desktop\project\app điểm danh sự kiện\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED59313-7E33-4644-BD91-60A42D41E975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B394FE6-74FD-4AF2-8C12-72BF10D959E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40C3B16C-8F90-475C-B492-872F332B07DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="151">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -360,6 +361,135 @@
   </si>
   <si>
     <t>00313542853689</t>
+  </si>
+  <si>
+    <t>image294.jpg</t>
+  </si>
+  <si>
+    <t>image233.jpeg</t>
+  </si>
+  <si>
+    <t>image231.jpeg</t>
+  </si>
+  <si>
+    <t>image112.jpeg</t>
+  </si>
+  <si>
+    <t>image44.jpeg</t>
+  </si>
+  <si>
+    <t>image230.jpeg</t>
+  </si>
+  <si>
+    <t>image288.jpeg</t>
+  </si>
+  <si>
+    <t>image111.jpeg</t>
+  </si>
+  <si>
+    <t>image257.jpeg</t>
+  </si>
+  <si>
+    <t>image221.jpeg</t>
+  </si>
+  <si>
+    <t>image122.jpeg</t>
+  </si>
+  <si>
+    <t>image70.jpeg</t>
+  </si>
+  <si>
+    <t>image200.jpeg</t>
+  </si>
+  <si>
+    <t>image281.jpeg</t>
+  </si>
+  <si>
+    <t>image14.jpeg</t>
+  </si>
+  <si>
+    <t>image125.jpeg</t>
+  </si>
+  <si>
+    <t>image176.jpeg</t>
+  </si>
+  <si>
+    <t>image192.jpeg</t>
+  </si>
+  <si>
+    <t>image16.jpeg</t>
+  </si>
+  <si>
+    <t>image89.jpeg</t>
+  </si>
+  <si>
+    <t>image24.jpeg</t>
+  </si>
+  <si>
+    <t>image59.jpeg</t>
+  </si>
+  <si>
+    <t>image211.jpeg</t>
+  </si>
+  <si>
+    <t>image241.jpeg</t>
+  </si>
+  <si>
+    <t>image117.jpeg</t>
+  </si>
+  <si>
+    <t>image172.jpeg</t>
+  </si>
+  <si>
+    <t>image262.jpeg</t>
+  </si>
+  <si>
+    <t>image37.jpeg</t>
+  </si>
+  <si>
+    <t>image88.jpeg</t>
+  </si>
+  <si>
+    <t>image143.jpeg</t>
+  </si>
+  <si>
+    <t>image53.jpeg</t>
+  </si>
+  <si>
+    <t>image51.jpeg</t>
+  </si>
+  <si>
+    <t>image116.jpeg</t>
+  </si>
+  <si>
+    <t>image26.jpeg</t>
+  </si>
+  <si>
+    <t>image99.jpeg</t>
+  </si>
+  <si>
+    <t>image269.jpeg</t>
+  </si>
+  <si>
+    <t>image171.jpeg</t>
+  </si>
+  <si>
+    <t>image266.jpeg</t>
+  </si>
+  <si>
+    <t>image197.jpeg</t>
+  </si>
+  <si>
+    <t>image195.jpeg</t>
+  </si>
+  <si>
+    <t>image77.jpeg</t>
+  </si>
+  <si>
+    <t>image263.jpeg</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -401,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -424,11 +554,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,9 +580,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -460,6 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,790 +934,933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40D574F-6D65-4D7B-8EB8-CEE91D030EAD}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:E43"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="F1" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="4" t="str">
         <f>"00"&amp;347894061169+A5</f>
         <v>00347894061173</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="4" t="str">
         <f>"00"&amp;347894061169+A6</f>
         <v>00347894061174</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" ref="C6:C43" si="0">"00"&amp;347894061169+A7</f>
+      <c r="C7" s="4" t="str">
+        <f t="shared" ref="C7:C43" si="0">"00"&amp;347894061169+A7</f>
         <v>00347894061175</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061176</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061177</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061178</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061179</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061180</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061181</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061182</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061183</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061184</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061185</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061186</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061187</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061188</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061189</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061190</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061191</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061192</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061193</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061194</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061195</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="6" t="str">
+      <c r="C28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061196</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6" t="str">
+      <c r="C29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061197</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="C30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061198</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="6" t="str">
+      <c r="C31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061199</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="6" t="str">
+      <c r="C32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061200</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="6" t="str">
+      <c r="C33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061201</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="6" t="str">
+      <c r="C34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061202</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="6" t="str">
+      <c r="C35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061203</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="C36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061204</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="6" t="str">
+      <c r="C37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061205</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="6" t="str">
+      <c r="C38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061206</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="F38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="6" t="str">
+      <c r="C39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061207</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061208</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="6" t="str">
+      <c r="C41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061209</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="F41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="6" t="str">
+      <c r="C42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061210</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00347894061211</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116526E2-7C71-4820-8898-35D16D987BBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/Danh sach.xlsx
+++ b/public/Danh sach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvthin\Desktop\project\app điểm danh sự kiện\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F37548D-E0DD-4901-8D69-2756EF4BB420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B7CEF-D2EF-4425-8734-F0C3BDA381D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40C3B16C-8F90-475C-B492-872F332B07DF}"/>
   </bookViews>
@@ -6080,7 +6080,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6227,9 +6227,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6243,9 +6240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17986,29 +17980,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40D574F-6D65-4D7B-8EB8-CEE91D030EAD}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="54" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="54" customFormat="1">
+    <row r="1" spans="1:7" s="53" customFormat="1">
       <c r="A1" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="51" t="s">
@@ -18020,7 +18014,7 @@
       <c r="F1" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>407</v>
       </c>
     </row>
@@ -18183,7 +18177,7 @@
       <c r="F9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -18274,7 +18268,7 @@
       <c r="B14" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>1854</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -18366,7 +18360,7 @@
       <c r="F18" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -18549,7 +18543,7 @@
       <c r="F27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -18832,7 +18826,7 @@
       <c r="F41" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -18895,7 +18889,7 @@
       <c r="F44" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="G44" s="57"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="25">
@@ -19044,7 +19038,7 @@
       <c r="B52" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="58" t="str">
+      <c r="C52" s="28" t="str">
         <f>VLOOKUP(B52,Sheet3!A:G,7,FALSE)</f>
         <v>00317828229024</v>
       </c>
@@ -19057,7 +19051,7 @@
       <c r="F52" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -19108,7 +19102,7 @@
       <c r="B55" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="55" t="s">
         <v>1853</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -19348,7 +19342,7 @@
       <c r="B67" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="58" t="str">
+      <c r="C67" s="28" t="str">
         <f>VLOOKUP(B67,Sheet3!A:G,7,FALSE)</f>
         <v>00313542875593</v>
       </c>
@@ -19361,7 +19355,7 @@
       <c r="F67" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="55" t="s">
+      <c r="G67" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -19432,7 +19426,7 @@
       <c r="B71" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="55" t="s">
         <v>1855</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -19612,7 +19606,7 @@
       <c r="B80" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="58" t="str">
+      <c r="C80" s="28" t="str">
         <f>VLOOKUP(B80,Sheet3!A:G,7,FALSE)</f>
         <v>00313542875278</v>
       </c>
@@ -19625,7 +19619,7 @@
       <c r="F80" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -19776,7 +19770,7 @@
       <c r="B88" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="58" t="str">
+      <c r="C88" s="28" t="str">
         <f>VLOOKUP(B88,Sheet3!A:G,7,FALSE)</f>
         <v>00313542863316</v>
       </c>
@@ -19789,7 +19783,7 @@
       <c r="F88" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G88" s="55" t="s">
+      <c r="G88" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -19920,7 +19914,7 @@
       <c r="B95" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="58" t="str">
+      <c r="C95" s="28" t="str">
         <f>VLOOKUP(B95,Sheet3!A:G,7,FALSE)</f>
         <v>00313542885191</v>
       </c>
@@ -19933,7 +19927,7 @@
       <c r="F95" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G95" s="55" t="s">
+      <c r="G95" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -20024,7 +20018,7 @@
       <c r="B100" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="58" t="str">
+      <c r="C100" s="28" t="str">
         <f>VLOOKUP(B100,Sheet3!A:G,7,FALSE)</f>
         <v>00317828159136</v>
       </c>
@@ -20037,7 +20031,7 @@
       <c r="F100" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -20128,7 +20122,7 @@
       <c r="B105" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="58" t="str">
+      <c r="C105" s="28" t="str">
         <f>VLOOKUP(B105,Sheet3!A:G,7,FALSE)</f>
         <v>00317828138830</v>
       </c>
@@ -20141,7 +20135,7 @@
       <c r="F105" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G105" s="55" t="s">
+      <c r="G105" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -20232,7 +20226,7 @@
       <c r="B110" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="58" t="str">
+      <c r="C110" s="28" t="str">
         <f>VLOOKUP(B110,Sheet3!A:G,7,FALSE)</f>
         <v>00317828158425</v>
       </c>
@@ -20245,7 +20239,7 @@
       <c r="F110" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G110" s="55" t="s">
+      <c r="G110" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -20336,7 +20330,7 @@
       <c r="B115" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="58" t="str">
+      <c r="C115" s="28" t="str">
         <f>VLOOKUP(B115,Sheet3!A:G,7,FALSE)</f>
         <v>00317828153729</v>
       </c>
@@ -20349,7 +20343,7 @@
       <c r="F115" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G115" s="55" t="s">
+      <c r="G115" s="54" t="s">
         <v>406</v>
       </c>
     </row>
@@ -20440,7 +20434,7 @@
       <c r="B120" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="58" t="str">
+      <c r="C120" s="28" t="str">
         <f>VLOOKUP(B120,Sheet3!A:G,7,FALSE)</f>
         <v>00317827715288</v>
       </c>
@@ -20453,7 +20447,7 @@
       <c r="F120" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="55" t="s">
+      <c r="G120" s="54" t="s">
         <v>406</v>
       </c>
     </row>

--- a/public/Danh sach.xlsx
+++ b/public/Danh sach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvthin\Desktop\project\app điểm danh sự kiện\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B7CEF-D2EF-4425-8734-F0C3BDA381D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89146146-BD39-47CD-AC27-60530D7BBFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40C3B16C-8F90-475C-B492-872F332B07DF}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1941">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -5867,6 +5867,9 @@
   </si>
   <si>
     <t>image290.jpeg</t>
+  </si>
+  <si>
+    <t>image295.jpg</t>
   </si>
 </sst>
 </file>
@@ -17980,8 +17983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40D574F-6D65-4D7B-8EB8-CEE91D030EAD}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20519,7 +20522,7 @@
         <v>172</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>1571</v>
+        <v>561</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>63</v>
@@ -20528,7 +20531,7 @@
         <v>453</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>1864</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -25454,7 +25457,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="82.5">
+    <row r="9" spans="1:7" ht="66">
       <c r="A9" s="46" t="s">
         <v>1819</v>
       </c>
@@ -25661,7 +25664,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="51">
+    <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="44" t="s">
         <v>18</v>
       </c>
@@ -25684,7 +25687,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="51">
+    <row r="19" spans="1:7" ht="38.25">
       <c r="A19" s="44" t="s">
         <v>20</v>
       </c>
@@ -25707,7 +25710,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="51">
+    <row r="20" spans="1:7" ht="49.5">
       <c r="A20" s="44" t="s">
         <v>19</v>
       </c>
@@ -25730,7 +25733,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51">
+    <row r="21" spans="1:7" ht="49.5">
       <c r="A21" s="44" t="s">
         <v>182</v>
       </c>
@@ -25753,7 +25756,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51">
+    <row r="22" spans="1:7" ht="49.5">
       <c r="A22" s="44" t="s">
         <v>186</v>
       </c>
@@ -25776,7 +25779,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="51">
+    <row r="23" spans="1:7" ht="38.25">
       <c r="A23" s="44" t="s">
         <v>1757</v>
       </c>
@@ -25822,7 +25825,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="51">
+    <row r="25" spans="1:7" ht="49.5">
       <c r="A25" s="44" t="s">
         <v>190</v>
       </c>
@@ -25845,7 +25848,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="51">
+    <row r="26" spans="1:7" ht="49.5">
       <c r="A26" s="44" t="s">
         <v>1744</v>
       </c>
@@ -25868,7 +25871,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="66">
+    <row r="27" spans="1:7" ht="49.5">
       <c r="A27" s="44" t="s">
         <v>1739</v>
       </c>
@@ -25960,7 +25963,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="51">
+    <row r="31" spans="1:7" ht="38.25">
       <c r="A31" s="44" t="s">
         <v>1721</v>
       </c>
@@ -26006,7 +26009,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="51">
+    <row r="33" spans="1:7" ht="49.5">
       <c r="A33" s="44" t="s">
         <v>366</v>
       </c>
@@ -26029,7 +26032,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="51">
+    <row r="34" spans="1:7" ht="49.5">
       <c r="A34" s="44" t="s">
         <v>1707</v>
       </c>
@@ -26121,7 +26124,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="66">
+    <row r="38" spans="1:7" ht="63.75">
       <c r="A38" s="44" t="s">
         <v>31</v>
       </c>
@@ -26213,7 +26216,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="82.5">
+    <row r="42" spans="1:7" ht="66">
       <c r="A42" s="44" t="s">
         <v>1672</v>
       </c>
@@ -26374,7 +26377,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="66">
+    <row r="49" spans="1:7" ht="63.75">
       <c r="A49" s="44" t="s">
         <v>197</v>
       </c>
@@ -26558,7 +26561,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="66">
+    <row r="57" spans="1:7" ht="49.5">
       <c r="A57" s="44" t="s">
         <v>1607</v>
       </c>
@@ -26857,7 +26860,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="66">
+    <row r="70" spans="1:7" ht="51">
       <c r="A70" s="44" t="s">
         <v>1553</v>
       </c>
@@ -27087,7 +27090,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="66">
+    <row r="80" spans="1:7" ht="49.5">
       <c r="A80" s="44" t="s">
         <v>1508</v>
       </c>
@@ -27248,7 +27251,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="49.5">
+    <row r="87" spans="1:7" ht="38.25">
       <c r="A87" s="44" t="s">
         <v>1478</v>
       </c>
@@ -27271,7 +27274,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="66">
+    <row r="88" spans="1:7" ht="49.5">
       <c r="A88" s="44" t="s">
         <v>279</v>
       </c>
@@ -27432,7 +27435,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="49.5">
+    <row r="95" spans="1:7" ht="38.25">
       <c r="A95" s="44" t="s">
         <v>1440</v>
       </c>
@@ -27800,7 +27803,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="66">
+    <row r="111" spans="1:7" ht="49.5">
       <c r="A111" s="44" t="s">
         <v>1360</v>
       </c>
@@ -28099,7 +28102,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="66">
+    <row r="124" spans="1:7" ht="49.5">
       <c r="A124" s="48" t="s">
         <v>1301</v>
       </c>
@@ -28904,7 +28907,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="66">
+    <row r="159" spans="1:7" ht="49.5">
       <c r="A159" s="48" t="s">
         <v>229</v>
       </c>
@@ -28973,7 +28976,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="66">
+    <row r="162" spans="1:7" ht="49.5">
       <c r="A162" s="48" t="s">
         <v>376</v>
       </c>
@@ -29203,7 +29206,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="66">
+    <row r="172" spans="1:7" ht="49.5">
       <c r="A172" s="48" t="s">
         <v>1084</v>
       </c>
@@ -29249,7 +29252,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="66">
+    <row r="174" spans="1:7" ht="49.5">
       <c r="A174" s="44" t="s">
         <v>1074</v>
       </c>
@@ -29479,7 +29482,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="51">
+    <row r="184" spans="1:7" ht="49.5">
       <c r="A184" s="44" t="s">
         <v>35</v>
       </c>
@@ -29502,7 +29505,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="51">
+    <row r="185" spans="1:7" ht="49.5">
       <c r="A185" s="44" t="s">
         <v>34</v>
       </c>
@@ -29548,7 +29551,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="51">
+    <row r="187" spans="1:7" ht="49.5">
       <c r="A187" s="44" t="s">
         <v>1010</v>
       </c>
@@ -29571,7 +29574,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="51">
+    <row r="188" spans="1:7" ht="49.5">
       <c r="A188" s="44" t="s">
         <v>304</v>
       </c>
@@ -29594,7 +29597,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51">
+    <row r="189" spans="1:7" ht="49.5">
       <c r="A189" s="44" t="s">
         <v>1001</v>
       </c>
@@ -29617,7 +29620,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="51">
+    <row r="190" spans="1:7" ht="49.5">
       <c r="A190" s="44" t="s">
         <v>308</v>
       </c>
@@ -29663,7 +29666,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="51">
+    <row r="192" spans="1:7" ht="38.25">
       <c r="A192" s="44" t="s">
         <v>310</v>
       </c>
@@ -29686,7 +29689,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="51">
+    <row r="193" spans="1:7" ht="49.5">
       <c r="A193" s="44" t="s">
         <v>983</v>
       </c>
@@ -29709,7 +29712,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51">
+    <row r="194" spans="1:7" ht="38.25">
       <c r="A194" s="44" t="s">
         <v>978</v>
       </c>
@@ -29732,7 +29735,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="51">
+    <row r="195" spans="1:7" ht="49.5">
       <c r="A195" s="44" t="s">
         <v>283</v>
       </c>
@@ -29755,7 +29758,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="51">
+    <row r="196" spans="1:7" ht="49.5">
       <c r="A196" s="44" t="s">
         <v>969</v>
       </c>
@@ -29778,7 +29781,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="51">
+    <row r="197" spans="1:7" ht="49.5">
       <c r="A197" s="44" t="s">
         <v>964</v>
       </c>
@@ -29801,7 +29804,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="51">
+    <row r="198" spans="1:7" ht="49.5">
       <c r="A198" s="44" t="s">
         <v>959</v>
       </c>
@@ -29824,7 +29827,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="51">
+    <row r="199" spans="1:7" ht="49.5">
       <c r="A199" s="44" t="s">
         <v>306</v>
       </c>
@@ -29847,7 +29850,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="51">
+    <row r="200" spans="1:7" ht="49.5">
       <c r="A200" s="44" t="s">
         <v>950</v>
       </c>
@@ -29870,7 +29873,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="51">
+    <row r="201" spans="1:7" ht="49.5">
       <c r="A201" s="44" t="s">
         <v>281</v>
       </c>
@@ -29893,7 +29896,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="51">
+    <row r="202" spans="1:7" ht="49.5">
       <c r="A202" s="44" t="s">
         <v>941</v>
       </c>
@@ -29916,7 +29919,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="51">
+    <row r="203" spans="1:7" ht="38.25">
       <c r="A203" s="44" t="s">
         <v>935</v>
       </c>
@@ -29939,7 +29942,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="51">
+    <row r="204" spans="1:7" ht="49.5">
       <c r="A204" s="44" t="s">
         <v>930</v>
       </c>
@@ -30008,7 +30011,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="51">
+    <row r="207" spans="1:7" ht="49.5">
       <c r="A207" s="44" t="s">
         <v>917</v>
       </c>
@@ -30031,7 +30034,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="51">
+    <row r="208" spans="1:7" ht="49.5">
       <c r="A208" s="44" t="s">
         <v>912</v>
       </c>
@@ -30077,7 +30080,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="51">
+    <row r="210" spans="1:7" ht="49.5">
       <c r="A210" s="44" t="s">
         <v>902</v>
       </c>
@@ -30100,7 +30103,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51">
+    <row r="211" spans="1:7" ht="38.25">
       <c r="A211" s="44" t="s">
         <v>897</v>
       </c>
@@ -30123,7 +30126,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="51">
+    <row r="212" spans="1:7" ht="49.5">
       <c r="A212" s="44" t="s">
         <v>893</v>
       </c>
@@ -30146,7 +30149,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="51">
+    <row r="213" spans="1:7" ht="49.5">
       <c r="A213" s="44" t="s">
         <v>37</v>
       </c>
@@ -30169,7 +30172,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="51">
+    <row r="214" spans="1:7" ht="49.5">
       <c r="A214" s="44" t="s">
         <v>38</v>
       </c>
@@ -30192,7 +30195,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51">
+    <row r="215" spans="1:7" ht="38.25">
       <c r="A215" s="44" t="s">
         <v>878</v>
       </c>
@@ -30215,7 +30218,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="51">
+    <row r="216" spans="1:7" ht="49.5">
       <c r="A216" s="44" t="s">
         <v>873</v>
       </c>
@@ -30261,7 +30264,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="51">
+    <row r="218" spans="1:7" ht="38.25">
       <c r="A218" s="44" t="s">
         <v>393</v>
       </c>
@@ -30284,7 +30287,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="51">
+    <row r="219" spans="1:7" ht="49.5">
       <c r="A219" s="44" t="s">
         <v>859</v>
       </c>
@@ -30307,7 +30310,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="51">
+    <row r="220" spans="1:7" ht="49.5">
       <c r="A220" s="44" t="s">
         <v>316</v>
       </c>
@@ -30330,7 +30333,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="51">
+    <row r="221" spans="1:7" ht="38.25">
       <c r="A221" s="44" t="s">
         <v>850</v>
       </c>
@@ -30376,7 +30379,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="66">
+    <row r="223" spans="1:7" ht="49.5">
       <c r="A223" s="44" t="s">
         <v>840</v>
       </c>
@@ -30399,7 +30402,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="51">
+    <row r="224" spans="1:7" ht="49.5">
       <c r="A224" s="44" t="s">
         <v>835</v>
       </c>
@@ -30422,7 +30425,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="51">
+    <row r="225" spans="1:7" ht="49.5">
       <c r="A225" s="44" t="s">
         <v>830</v>
       </c>
@@ -30445,7 +30448,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="51">
+    <row r="226" spans="1:7" ht="49.5">
       <c r="A226" s="44" t="s">
         <v>320</v>
       </c>
@@ -30491,7 +30494,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="51">
+    <row r="228" spans="1:7" ht="49.5">
       <c r="A228" s="44" t="s">
         <v>318</v>
       </c>
@@ -30514,7 +30517,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="51">
+    <row r="229" spans="1:7" ht="49.5">
       <c r="A229" s="44" t="s">
         <v>812</v>
       </c>
@@ -30537,7 +30540,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="51">
+    <row r="230" spans="1:7" ht="49.5">
       <c r="A230" s="44" t="s">
         <v>807</v>
       </c>
@@ -30560,7 +30563,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="51">
+    <row r="231" spans="1:7" ht="49.5">
       <c r="A231" s="44" t="s">
         <v>803</v>
       </c>
@@ -30583,7 +30586,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="66">
+    <row r="232" spans="1:7" ht="49.5">
       <c r="A232" s="44" t="s">
         <v>39</v>
       </c>
@@ -30606,7 +30609,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="66">
+    <row r="233" spans="1:7" ht="49.5">
       <c r="A233" s="44" t="s">
         <v>40</v>
       </c>
@@ -30629,7 +30632,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="51">
+    <row r="234" spans="1:7" ht="49.5">
       <c r="A234" s="44" t="s">
         <v>324</v>
       </c>
@@ -30652,7 +30655,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="51">
+    <row r="235" spans="1:7" ht="49.5">
       <c r="A235" s="44" t="s">
         <v>785</v>
       </c>
@@ -30675,7 +30678,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="51">
+    <row r="236" spans="1:7" ht="49.5">
       <c r="A236" s="44" t="s">
         <v>780</v>
       </c>
@@ -30698,7 +30701,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="51">
+    <row r="237" spans="1:7" ht="49.5">
       <c r="A237" s="44" t="s">
         <v>775</v>
       </c>
@@ -30721,7 +30724,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="51">
+    <row r="238" spans="1:7" ht="49.5">
       <c r="A238" s="44" t="s">
         <v>326</v>
       </c>
@@ -30744,7 +30747,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="51">
+    <row r="239" spans="1:7" ht="38.25">
       <c r="A239" s="44" t="s">
         <v>328</v>
       </c>
@@ -30767,7 +30770,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="51">
+    <row r="240" spans="1:7" ht="49.5">
       <c r="A240" s="44" t="s">
         <v>761</v>
       </c>
@@ -30790,7 +30793,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51">
+    <row r="241" spans="1:7" ht="49.5">
       <c r="A241" s="44" t="s">
         <v>395</v>
       </c>
@@ -30813,7 +30816,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51">
+    <row r="242" spans="1:7" ht="49.5">
       <c r="A242" s="44" t="s">
         <v>752</v>
       </c>
@@ -30836,7 +30839,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="51">
+    <row r="243" spans="1:7" ht="38.25">
       <c r="A243" s="44" t="s">
         <v>41</v>
       </c>
@@ -30859,7 +30862,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="51">
+    <row r="244" spans="1:7" ht="49.5">
       <c r="A244" s="44" t="s">
         <v>42</v>
       </c>
@@ -30882,7 +30885,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="51">
+    <row r="245" spans="1:7" ht="49.5">
       <c r="A245" s="44" t="s">
         <v>738</v>
       </c>
@@ -30905,7 +30908,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="51">
+    <row r="246" spans="1:7" ht="49.5">
       <c r="A246" s="44" t="s">
         <v>733</v>
       </c>
@@ -30928,7 +30931,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="51">
+    <row r="247" spans="1:7" ht="49.5">
       <c r="A247" s="44" t="s">
         <v>332</v>
       </c>
@@ -30974,7 +30977,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="51">
+    <row r="249" spans="1:7" ht="49.5">
       <c r="A249" s="44" t="s">
         <v>336</v>
       </c>
@@ -30997,7 +31000,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="51">
+    <row r="250" spans="1:7" ht="38.25">
       <c r="A250" s="44" t="s">
         <v>716</v>
       </c>
@@ -31020,7 +31023,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51">
+    <row r="251" spans="1:7" ht="49.5">
       <c r="A251" s="44" t="s">
         <v>711</v>
       </c>
@@ -31043,7 +31046,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="51">
+    <row r="252" spans="1:7" ht="49.5">
       <c r="A252" s="45" t="s">
         <v>706</v>
       </c>
@@ -31066,7 +31069,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="51">
+    <row r="253" spans="1:7" ht="49.5">
       <c r="A253" s="44" t="s">
         <v>397</v>
       </c>
@@ -31158,7 +31161,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="51">
+    <row r="257" spans="1:7" ht="38.25">
       <c r="A257" s="44" t="s">
         <v>682</v>
       </c>
@@ -31181,7 +31184,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="51">
+    <row r="258" spans="1:7" ht="38.25">
       <c r="A258" s="44" t="s">
         <v>342</v>
       </c>
@@ -31204,7 +31207,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="51">
+    <row r="259" spans="1:7" ht="49.5">
       <c r="A259" s="44" t="s">
         <v>340</v>
       </c>
@@ -31227,7 +31230,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="66">
+    <row r="260" spans="1:7" ht="49.5">
       <c r="A260" s="46" t="s">
         <v>669</v>
       </c>
@@ -31250,7 +31253,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51">
+    <row r="261" spans="1:7" ht="49.5">
       <c r="A261" s="44" t="s">
         <v>664</v>
       </c>
@@ -31273,7 +31276,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="51">
+    <row r="262" spans="1:7" ht="49.5">
       <c r="A262" s="44" t="s">
         <v>399</v>
       </c>
@@ -31319,7 +31322,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51">
+    <row r="264" spans="1:7" ht="49.5">
       <c r="A264" s="44" t="s">
         <v>650</v>
       </c>
@@ -31342,7 +31345,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="51">
+    <row r="265" spans="1:7" ht="49.5">
       <c r="A265" s="45" t="s">
         <v>645</v>
       </c>
@@ -31365,7 +31368,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="51">
+    <row r="266" spans="1:7" ht="49.5">
       <c r="A266" s="44" t="s">
         <v>45</v>
       </c>
@@ -31388,7 +31391,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="51">
+    <row r="267" spans="1:7" ht="49.5">
       <c r="A267" s="44" t="s">
         <v>46</v>
       </c>
@@ -31411,7 +31414,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="51">
+    <row r="268" spans="1:7" ht="38.25">
       <c r="A268" s="44" t="s">
         <v>401</v>
       </c>
@@ -31434,7 +31437,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="51">
+    <row r="269" spans="1:7" ht="49.5">
       <c r="A269" s="44" t="s">
         <v>625</v>
       </c>
@@ -31457,7 +31460,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="51">
+    <row r="270" spans="1:7" ht="49.5">
       <c r="A270" s="44" t="s">
         <v>350</v>
       </c>
@@ -31480,7 +31483,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="51">
+    <row r="271" spans="1:7" ht="49.5">
       <c r="A271" s="44" t="s">
         <v>348</v>
       </c>
@@ -31503,7 +31506,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="51">
+    <row r="272" spans="1:7" ht="49.5">
       <c r="A272" s="44" t="s">
         <v>352</v>
       </c>
@@ -31526,7 +31529,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="51">
+    <row r="273" spans="1:7" ht="38.25">
       <c r="A273" s="44" t="s">
         <v>608</v>
       </c>
@@ -31549,7 +31552,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="51">
+    <row r="274" spans="1:7" ht="49.5">
       <c r="A274" s="44" t="s">
         <v>603</v>
       </c>
@@ -31572,7 +31575,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51">
+    <row r="275" spans="1:7" ht="38.25">
       <c r="A275" s="44" t="s">
         <v>598</v>
       </c>
@@ -31595,7 +31598,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51">
+    <row r="276" spans="1:7" ht="49.5">
       <c r="A276" s="44" t="s">
         <v>47</v>
       </c>
@@ -31618,7 +31621,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="51">
+    <row r="277" spans="1:7" ht="49.5">
       <c r="A277" s="44" t="s">
         <v>48</v>
       </c>
@@ -31641,7 +31644,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="51">
+    <row r="278" spans="1:7" ht="49.5">
       <c r="A278" s="44" t="s">
         <v>356</v>
       </c>
@@ -31664,7 +31667,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="51">
+    <row r="279" spans="1:7" ht="38.25">
       <c r="A279" s="44" t="s">
         <v>578</v>
       </c>
@@ -31687,7 +31690,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="51">
+    <row r="280" spans="1:7" ht="49.5">
       <c r="A280" s="44" t="s">
         <v>358</v>
       </c>
@@ -31733,7 +31736,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="51">
+    <row r="282" spans="1:7" ht="49.5">
       <c r="A282" s="44" t="s">
         <v>172</v>
       </c>
@@ -31756,7 +31759,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="51">
+    <row r="283" spans="1:7" ht="49.5">
       <c r="A283" s="44" t="s">
         <v>560</v>
       </c>
@@ -31779,7 +31782,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="51">
+    <row r="284" spans="1:7" ht="49.5">
       <c r="A284" s="44" t="s">
         <v>555</v>
       </c>
@@ -31802,7 +31805,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="51">
+    <row r="285" spans="1:7" ht="49.5">
       <c r="A285" s="44" t="s">
         <v>361</v>
       </c>
@@ -31825,7 +31828,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="51">
+    <row r="286" spans="1:7" ht="49.5">
       <c r="A286" s="44" t="s">
         <v>403</v>
       </c>
@@ -31848,7 +31851,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="51">
+    <row r="287" spans="1:7" ht="49.5">
       <c r="A287" s="44" t="s">
         <v>542</v>
       </c>
@@ -31871,7 +31874,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="51">
+    <row r="288" spans="1:7" ht="49.5">
       <c r="A288" s="44" t="s">
         <v>537</v>
       </c>
@@ -31894,7 +31897,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="66">
+    <row r="289" spans="1:7" ht="49.5">
       <c r="A289" s="44" t="s">
         <v>532</v>
       </c>

--- a/public/Danh sach.xlsx
+++ b/public/Danh sach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvthin\Desktop\project\app điểm danh sự kiện\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43D396-A5A1-4AE0-A809-82D6463CE90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F0523-1FD2-4EAA-804E-85F4A7ED7327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40C3B16C-8F90-475C-B492-872F332B07DF}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{40C3B16C-8F90-475C-B492-872F332B07DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40D574F-6D65-4D7B-8EB8-CEE91D030EAD}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4342,7 +4342,7 @@
         <v>58</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>498</v>
@@ -4362,7 +4362,7 @@
         <v>58</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>499</v>
@@ -4445,7 +4445,7 @@
         <v>59</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>501</v>
@@ -4465,7 +4465,7 @@
         <v>59</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>502</v>
@@ -4707,7 +4707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8E238-F664-447F-9ABA-194AAC70F104}">
   <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
